--- a/SourceDataTables/FigS6a.xlsx
+++ b/SourceDataTables/FigS6a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -55,11 +55,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -69,6 +85,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,10 +118,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
     </row>

--- a/SourceDataTables/FigS6a.xlsx
+++ b/SourceDataTables/FigS6a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="2">
   <si>
     <t>Thalamic_Seed</t>
   </si>
@@ -39,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -71,11 +71,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -101,6 +105,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,10 +126,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
